--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>868359.1086839649</v>
+        <v>841922.5533740148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4963487.61934963</v>
+        <v>4963487.619349628</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>181.0201173812374</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>130.8112736077237</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>72.55971260501168</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>54.71324973020973</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>119.1003526907495</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>205.5178444382804</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>72.55971260501174</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0347330949086</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,70 +1367,70 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>120.4324765878912</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>21.16030022554286</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>19.76971678912829</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1734,19 +1734,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>29.90684812882263</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.96396779500064</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.6723709928539</v>
+        <v>53.49507230234266</v>
       </c>
     </row>
     <row r="22">
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>230.2038249569697</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>76.79360427493793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>88.1641514687673</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>211.9344148496279</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>26.54985421895027</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2925,7 +2925,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>49.59973045914182</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>84.41978777916125</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>12.162665399307</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,13 +3123,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>75.98437144330406</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>150.9424860118584</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41964442677787</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3393,7 +3393,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3588,13 +3588,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>68.84126413866905</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>118.6245911229545</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="F41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>17.62610975548109</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,64 +3980,64 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>46.54968785507681</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="46">
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.8736563016672</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C3" t="n">
-        <v>238.8736563016672</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D3" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4413,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>238.8736563016672</v>
+        <v>748.7787387581603</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8736563016672</v>
+        <v>748.7787387581603</v>
       </c>
       <c r="X3" t="n">
-        <v>238.8736563016672</v>
+        <v>541.1849564972711</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.8736563016672</v>
+        <v>333.5911742363817</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4507,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4568,10 +4568,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X5" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>218.9960269993568</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>72.46146902624182</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>72.46146902624182</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>72.46146902624182</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4653,16 +4653,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4680,16 +4680,16 @@
         <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>305.7142837842288</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4744,31 +4744,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="C8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="C8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>224.0352098159517</v>
@@ -4847,7 +4847,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>89.73406655002378</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.1984156022267</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5048,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>604.3859801240053</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.792197863116</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.2622584721643</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>446.2622584721643</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>297.3278488109131</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>138.0903938054576</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5154,16 +5154,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5221,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,7 +5282,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5303,25 +5303,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.4951893506917</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C15" t="n">
-        <v>107.4951893506917</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4951893506917</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E15" t="n">
-        <v>107.4951893506917</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H15" t="n">
         <v>107.4951893506917</v>
@@ -5361,13 +5361,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5382,25 +5382,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>315.088971611581</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V15" t="n">
-        <v>315.088971611581</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W15" t="n">
-        <v>107.4951893506917</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X15" t="n">
-        <v>107.4951893506917</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.4951893506917</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>962.2293816994886</v>
+      </c>
+      <c r="F17" t="n">
         <v>718.7806050553886</v>
       </c>
-      <c r="C17" t="n">
+      <c r="G17" t="n">
         <v>475.3318284112885</v>
-      </c>
-      <c r="D17" t="n">
-        <v>475.3318284112885</v>
-      </c>
-      <c r="E17" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="F17" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="G17" t="n">
-        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
         <v>231.8830517671884</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5713,7 +5713,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V20" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>210.869396638348</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>210.869396638348</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>808.852199495499</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5944,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -6008,25 +6008,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V23" t="n">
-        <v>495.259035872464</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
         <v>19.28114311021272</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>588.4532163200711</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>432.4774131586771</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C27" t="n">
-        <v>258.02438387755</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D27" t="n">
-        <v>109.0899742162987</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E27" t="n">
-        <v>109.0899742162987</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F27" t="n">
-        <v>109.0899742162987</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>109.0899742162987</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>109.0899742162987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6312,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>432.4774131586771</v>
+        <v>749.9819889958605</v>
       </c>
       <c r="V27" t="n">
-        <v>432.4774131586771</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="W27" t="n">
-        <v>432.4774131586771</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X27" t="n">
-        <v>432.4774131586771</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y27" t="n">
-        <v>432.4774131586771</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="28">
@@ -6400,25 +6400,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>437.1829490354398</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>437.1829490354398</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>193.7341723913397</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>137.1529394704382</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.5536560184564</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y32" t="n">
-        <v>348.0024326625565</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>521.2549444941228</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C33" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D33" t="n">
-        <v>508.9694238887622</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6892,16 +6892,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6956,16 +6956,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
         <v>506.1786963984129</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>313.4946457291688</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C36" t="n">
-        <v>139.0416164480418</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D36" t="n">
-        <v>139.0416164480418</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>139.0416164480418</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>139.0416164480418</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>139.0416164480418</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,16 +7017,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.7099827492369</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7111,34 +7111,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>447.2758270930352</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>447.2758270930352</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D39" t="n">
-        <v>298.3414174317839</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="E39" t="n">
-        <v>139.1039624263284</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>139.1039624263284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>655.0361258579891</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>447.2758270930352</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7369,13 +7369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="C41" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="D41" t="n">
         <v>604.3859801240053</v>
       </c>
-      <c r="D41" t="n">
-        <v>396.792197863116</v>
-      </c>
       <c r="E41" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7421,10 +7421,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7588,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7658,7 +7658,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
         <v>822.0713777531216</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7758,19 +7758,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>775.0514910308218</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>775.0514910308218</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>775.0514910308218</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>567.4577087699325</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.8639265090432</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8301,19 +8301,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,16 +9009,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10443,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,13 +11069,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,10 +11306,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22568,7 +22568,7 @@
         <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>39.94924155962048</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>6.532243555486957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>160.2408745444136</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,19 +22784,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,16 +22863,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>34.68338312120535</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>86.672632512728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897702</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>201.358201303431</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,10 +23103,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>85.0853678503892</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>46.64796268239573</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,10 +23315,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>24.63673580549272</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,13 +23394,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>187.8597693607025</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,19 +23577,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>92.46572744736817</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>196.0345339521522</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23732,22 +23732,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>126.0561017912447</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24023,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,16 +24105,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.01032478445043</v>
+        <v>152.1876234749617</v>
       </c>
     </row>
     <row r="22">
@@ -24184,10 +24184,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,13 +24263,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>119.0371437604433</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,10 +24285,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>83.50129159232563</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>128.8890915023664</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24522,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.232481382647777</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>14.00696723134692</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>85.68559001754619</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>176.341651621833</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24822,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>280.8531039918463</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>160.5458335890087</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,13 +25011,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>36.25107279319241</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,10 +25205,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>15.59069763800895</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,10 +25248,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>83.8157998097186</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25333,10 +25333,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,10 +25351,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,13 +25436,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25476,13 +25476,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>88.8038163167319</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>18.71892604025614</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,16 +25628,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8502412601817</v>
       </c>
       <c r="F41" t="n">
-        <v>235.8466275750188</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>119.7174074077296</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,16 +25761,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,25 +25907,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>179.391694225898</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418159.7791966617</v>
+        <v>418159.7791966615</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966616</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440444.8720981749</v>
+        <v>440444.8720981746</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440444.8720981749</v>
+        <v>440444.8720981748</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440444.8720981749</v>
+        <v>440444.8720981748</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440444.8720981748</v>
+        <v>440444.8720981746</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966616</v>
       </c>
     </row>
   </sheetData>
@@ -26338,16 +26338,16 @@
         <v>157852.6389047657</v>
       </c>
       <c r="K2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="L2" t="n">
         <v>157852.6389047658</v>
       </c>
-      <c r="L2" t="n">
-        <v>157852.6389047657</v>
-      </c>
       <c r="M2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="N2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21928.45406175694</v>
+        <v>18841.31414312897</v>
       </c>
       <c r="C6" t="n">
-        <v>90802.2106434468</v>
+        <v>87715.07072481878</v>
       </c>
       <c r="D6" t="n">
-        <v>90802.21064344683</v>
+        <v>87715.07072481881</v>
       </c>
       <c r="E6" t="n">
-        <v>124429.8106434468</v>
+        <v>121342.6707248188</v>
       </c>
       <c r="F6" t="n">
-        <v>124429.8106434468</v>
+        <v>121342.6707248188</v>
       </c>
       <c r="G6" t="n">
-        <v>119809.0759674595</v>
+        <v>116555.2375258562</v>
       </c>
       <c r="H6" t="n">
-        <v>129538.1189416267</v>
+        <v>126284.2805000233</v>
       </c>
       <c r="I6" t="n">
-        <v>129538.1189416266</v>
+        <v>126284.2805000232</v>
       </c>
       <c r="J6" t="n">
-        <v>75765.60805141716</v>
+        <v>72511.76960981381</v>
       </c>
       <c r="K6" t="n">
-        <v>129538.1189416267</v>
+        <v>126284.2805000232</v>
       </c>
       <c r="L6" t="n">
-        <v>129538.1189416266</v>
+        <v>126284.2805000233</v>
       </c>
       <c r="M6" t="n">
-        <v>129538.1189416266</v>
+        <v>126284.2805000233</v>
       </c>
       <c r="N6" t="n">
-        <v>129538.1189416266</v>
+        <v>126284.2805000233</v>
       </c>
       <c r="O6" t="n">
-        <v>124429.8106434468</v>
+        <v>121342.6707248188</v>
       </c>
       <c r="P6" t="n">
-        <v>124429.8106434468</v>
+        <v>121342.6707248188</v>
       </c>
     </row>
   </sheetData>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35021,19 +35021,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,16 +35729,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37163,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,7 +37397,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,10 +38026,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841922.5533740148</v>
+        <v>842706.6993120433</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4963487.619349628</v>
+        <v>4963487.61934963</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>72.55971260501168</v>
+        <v>186.0104598622175</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,64 +901,64 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>18.29858075282282</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>54.71324973020973</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,73 +1135,73 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>159.0347330949086</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
-        <v>169.0708280266249</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>180.2735260549796</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,7 +1627,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>19.76971678912829</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1749,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,64 +1843,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1971,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,67 +2083,67 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.49507230234266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,19 +2399,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>89.20720739599011</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>90.83169492337474</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>22.53539329780094</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>211.9344148496279</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>26.54985421895027</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2925,19 +2927,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>24.83923539838699</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2950,70 +2952,70 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>75.98437144330406</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>100.8425123146952</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,49 +3204,49 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,64 +3265,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>230.2038249569697</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.9424860118584</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>144.1493081031292</v>
       </c>
     </row>
     <row r="37">
@@ -3445,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3582,28 +3584,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>68.84126413866905</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>17.64958753804059</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.311618392921693</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>76.48594566799147</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>651.2927635848137</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>651.2927635848137</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>651.2927635848137</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>651.2927635848137</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3758372163137</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
-        <v>548.724319600695</v>
-      </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>748.7787387581603</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W3" t="n">
-        <v>748.7787387581603</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X3" t="n">
-        <v>541.1849564972711</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.5911742363817</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
         <v>133.2380658808762</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4568,10 +4570,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552.6865112859393</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>378.2334820048123</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D6" t="n">
-        <v>378.2334820048123</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="E6" t="n">
-        <v>218.9960269993568</v>
+        <v>287.0248034667088</v>
       </c>
       <c r="F6" t="n">
-        <v>72.46146902624182</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G6" t="n">
-        <v>72.46146902624182</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>72.46146902624182</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>133.2380658808762</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C8" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4817,37 +4819,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4890,43 +4892,43 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>345.2979091154422</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,43 +5050,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V11" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>122.874819529786</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5154,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y12" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="W12" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X12" t="n">
-        <v>224.7893424687375</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5279,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.9018483060073</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C15" t="n">
-        <v>720.9018483060073</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D15" t="n">
-        <v>571.967438644756</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E15" t="n">
-        <v>412.7299836393005</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>266.1954256661855</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>127.464600248801</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,13 +5363,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M15" t="n">
         <v>163.1080096386462</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>366.5706756325438</v>
-      </c>
-      <c r="N15" t="n">
-        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y15" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="16">
@@ -5452,13 +5454,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
         <v>16.44142755506243</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5604,13 +5606,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>640.636862475431</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C21" t="n">
-        <v>466.183833194304</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5843,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>808.852199495499</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5944,13 +5946,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.3894334091926</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>419.2021945682071</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>270.2677849069559</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>111.0303299015004</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>111.0303299015004</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271.3811041200179</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C27" t="n">
-        <v>271.3811041200179</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="D27" t="n">
-        <v>271.3811041200179</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="E27" t="n">
-        <v>271.3811041200179</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>749.9819889958605</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>514.8298807641179</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>271.3811041200179</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>271.3811041200179</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y27" t="n">
-        <v>271.3811041200179</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="28">
@@ -6400,28 +6402,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W30" t="n">
-        <v>345.004439675971</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>137.1529394704382</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.1529394704382</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>689.4702815141908</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C33" t="n">
-        <v>689.4702815141908</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D33" t="n">
-        <v>540.5358718529395</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E33" t="n">
-        <v>381.298416847484</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F33" t="n">
-        <v>234.763858874369</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>96.0330334569845</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.1960319604391</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>452.2491385542513</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.6601697108322</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,10 +7028,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.1273272985679</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7111,34 +7113,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C39" t="n">
-        <v>384.2867411876791</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D39" t="n">
-        <v>235.3523315264278</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>380.2627321156882</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7289,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7421,10 +7423,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7527,7 +7529,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
         <v>406.8838132313431</v>
@@ -7588,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.51141680214578</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7658,10 +7660,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>329.6252822535739</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7731,10 +7733,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
         <v>366.5706756325438</v>
@@ -7758,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>744.8128467753525</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>744.8128467753525</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>537.2190645144632</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>537.2190645144632</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>329.6252822535739</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8301,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,7 +8540,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8547,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9011,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11306,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>338.5801012383814</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>160.2408745444136</v>
+        <v>46.79012728720775</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22787,10 +22789,10 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22841,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034424</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,19 +22874,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>126.7706316405611</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.68338312120535</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22917,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22960,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23021,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897702</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D8" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>110.3488012740662</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>46.64796268239573</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>158.68143044351</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,13 +23396,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>25.49945914849792</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,7 +23515,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>110.3488012740662</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>92.46572744736817</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23637,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,16 +23779,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23859,25 +23861,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.1876234749617</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,19 +24287,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>83.50129159232563</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>46.51182223983589</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,19 +24338,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24379,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>66.86123955361413</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24573,16 +24575,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.00696723134692</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24774,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68559001754619</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>201.1021466825878</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,7 +24919,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>270.8624047773015</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24962,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>36.25107279319241</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>70.84065878914267</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>21.14182795086677</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.59069763800895</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>61.53338767417517</v>
       </c>
     </row>
     <row r="37">
@@ -25333,10 +25335,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25470,28 +25472,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>88.8038163167319</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25628,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>222.8502412601817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.2215652569456</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>74.90969912004499</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>235.8466275750188</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25998,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>149.4554364129833</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.66257839606692</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418159.7791966616</v>
+        <v>418159.7791966614</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966616</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966614</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440444.8720981746</v>
+        <v>440444.8720981748</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440444.8720981748</v>
+        <v>440444.8720981749</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440444.8720981746</v>
+        <v>440444.8720981748</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966616</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418159.7791966616</v>
+        <v>418159.7791966615</v>
       </c>
     </row>
   </sheetData>
@@ -26329,25 +26331,25 @@
         <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="I2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="J2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="L2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="M2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="N2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18841.31414312897</v>
+        <v>18841.31414312896</v>
       </c>
       <c r="C6" t="n">
-        <v>87715.07072481878</v>
+        <v>87715.07072481877</v>
       </c>
       <c r="D6" t="n">
-        <v>87715.07072481881</v>
+        <v>87715.07072481877</v>
       </c>
       <c r="E6" t="n">
         <v>121342.6707248188</v>
@@ -26537,28 +26539,28 @@
         <v>116555.2375258562</v>
       </c>
       <c r="H6" t="n">
-        <v>126284.2805000233</v>
+        <v>126284.2805000232</v>
       </c>
       <c r="I6" t="n">
         <v>126284.2805000232</v>
       </c>
       <c r="J6" t="n">
-        <v>72511.76960981381</v>
+        <v>72511.76960981383</v>
       </c>
       <c r="K6" t="n">
         <v>126284.2805000232</v>
       </c>
       <c r="L6" t="n">
-        <v>126284.2805000233</v>
+        <v>126284.2805000232</v>
       </c>
       <c r="M6" t="n">
-        <v>126284.2805000233</v>
+        <v>126284.2805000232</v>
       </c>
       <c r="N6" t="n">
-        <v>126284.2805000233</v>
+        <v>126284.2805000232</v>
       </c>
       <c r="O6" t="n">
-        <v>121342.6707248188</v>
+        <v>121342.6707248187</v>
       </c>
       <c r="P6" t="n">
         <v>121342.6707248188</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O3" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35021,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35267,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N12" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="M15" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>127.1185794980173</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38026,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N45" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842706.6993120433</v>
+        <v>738474.2010486001</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7.565027066663822</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>186.0104598622175</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="F6" t="n">
-        <v>18.29858075282282</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>171.0294181666926</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>30.65343945508051</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>102.5949237722608</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
@@ -1624,13 +1624,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>153.6816173514498</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>62.4162677022923</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>110.1497834296626</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>142.4223624459043</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>90.83169492337474</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.53539329780094</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>15.59049435698037</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>24.83923539838699</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,68 +3028,68 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="S33" t="n">
-        <v>100.8425123146952</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>144.1493081031292</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>17.64958753804059</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>81.79300223191873</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>28.72815266929518</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,61 +3982,61 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>205.5178444382804</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>76.48594566799147</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>8.590354951141759</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4152,49 +4152,49 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.5951503604969</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C3" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4412,13 +4412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
         <v>435.9652341458732</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>359.5951503604969</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>359.5951503604969</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.5951503604969</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4570,7 +4570,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
         <v>176.2910403306274</v>
@@ -4591,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="6">
@@ -4625,19 +4625,19 @@
         <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>446.2622584721643</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D6" t="n">
-        <v>446.2622584721643</v>
+        <v>122.874819529786</v>
       </c>
       <c r="E6" t="n">
-        <v>287.0248034667088</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4655,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4679,13 +4679,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
         <v>614.4775954922324</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.792197863116</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4819,37 +4819,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W8" t="n">
-        <v>604.3859801240053</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X8" t="n">
-        <v>604.3859801240053</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.792197863116</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D9" t="n">
-        <v>64.21544693014803</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4889,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5001,13 +5001,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5047,46 +5047,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>37.81546818692397</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.2622584721643</v>
+        <v>337.4290148093045</v>
       </c>
       <c r="C12" t="n">
-        <v>271.8092291910373</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D12" t="n">
-        <v>122.874819529786</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>337.4290148093045</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>337.4290148093045</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>337.4290148093045</v>
       </c>
     </row>
     <row r="13">
@@ -5220,13 +5220,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
         <v>16.44142755506243</v>
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y15" t="n">
-        <v>406.8838132313431</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="16">
@@ -5463,13 +5463,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
         <v>16.44142755506243</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5597,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8289213922435</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8289213922435</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V18" t="n">
-        <v>852.7947480059265</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>609.3459713618265</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>401.4944711562937</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5703,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.38115216564972</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C21" t="n">
-        <v>49.38115216564972</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.38115216564972</v>
+        <v>343.4227147053767</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5955,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.6552238493341</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C24" t="n">
-        <v>419.2021945682071</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D24" t="n">
-        <v>270.2677849069559</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E24" t="n">
-        <v>111.0303299015004</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F24" t="n">
-        <v>111.0303299015004</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y24" t="n">
-        <v>761.8705608694022</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>365.4316055857233</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C27" t="n">
-        <v>190.9785763045963</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D27" t="n">
-        <v>42.04416664334499</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E27" t="n">
-        <v>42.04416664334499</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F27" t="n">
-        <v>42.04416664334499</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G27" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X27" t="n">
-        <v>533.6469426057913</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.6469426057913</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="28">
@@ -6423,7 +6423,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>462.1935501069094</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>227.0414418751666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6657,10 +6657,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6679,13 +6679,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.0338015341832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="S33" t="n">
-        <v>862.1960319604391</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T33" t="n">
-        <v>660.0094373192052</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U33" t="n">
-        <v>660.0094373192052</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V33" t="n">
-        <v>660.0094373192052</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W33" t="n">
-        <v>660.0094373192052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X33" t="n">
-        <v>660.0094373192052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>452.2491385542513</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6894,7 +6894,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6192102101089</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>339.3395341116723</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C39" t="n">
-        <v>688.4345967823949</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D39" t="n">
-        <v>539.5001871211437</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="E39" t="n">
-        <v>380.2627321156882</v>
+        <v>249.1890279097688</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>102.6544699366537</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7420,43 +7420,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>453.0030327087026</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>245.4092504478133</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>245.4092504478133</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C42" t="n">
-        <v>31.07469395038575</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D42" t="n">
-        <v>31.07469395038575</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7496,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="43">
@@ -7590,22 +7590,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>329.6252822535739</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>744.8128467753525</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>744.8128467753525</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>537.2190645144632</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X45" t="n">
-        <v>537.2190645144632</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y45" t="n">
-        <v>329.6252822535739</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
         <v>16.44142755506243</v>
@@ -7842,16 +7842,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8303,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8704,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,10 +8774,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,13 +9011,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,10 +9254,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11156,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>338.5801012383814</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>158.9681565832035</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>46.79012728720775</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>156.7228403034424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,22 +22865,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="F6" t="n">
-        <v>126.7706316405611</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>194.2434736043149</v>
+        <v>334.1218923309199</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>110.3488012740662</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>106.6900777081301</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>387.6743356562363</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>52.27602240042461</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23387,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>149.1000593886588</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23460,16 +23460,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
@@ -23512,13 +23512,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>110.3488012740662</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>52.09136785202764</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>160.679581861839</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>44.49188237543434</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>122.6508037197627</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23974,7 +23974,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>107.544508198328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>90.378224703521</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>46.51182223983589</v>
+        <v>73.45469409868832</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24335,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>66.86123955361413</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>131.8545712076584</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>201.1021466825878</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24897,13 +24897,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24964,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>65.49716000536247</v>
       </c>
       <c r="S33" t="n">
-        <v>70.84065878914267</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25134,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.3884445891959</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>61.53338767417517</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>279.5921429795728</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>55.5505149312919</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>394.1424372895921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>118.7169128953436</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>74.90969912004499</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>235.8466275750188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>143.7231242791326</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>149.4554364129833</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>243.1046282097778</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966616</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418159.7791966614</v>
+        <v>418159.7791966615</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418159.7791966616</v>
+        <v>418159.7791966615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418159.7791966614</v>
+        <v>418159.7791966616</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440444.8720981748</v>
+        <v>440444.8720981749</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440444.8720981749</v>
+        <v>440444.8720981747</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440444.8720981749</v>
+        <v>440444.8720981747</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418159.7791966616</v>
+        <v>418159.7791966617</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418159.7791966615</v>
+        <v>418159.7791966614</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="H2" t="n">
         <v>157852.6389047657</v>
@@ -26337,13 +26337,13 @@
         <v>157852.6389047657</v>
       </c>
       <c r="J2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="L2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="M2" t="n">
         <v>157852.6389047657</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18841.31414312896</v>
+        <v>6203.15198826843</v>
       </c>
       <c r="C6" t="n">
-        <v>87715.07072481877</v>
+        <v>75076.90856995826</v>
       </c>
       <c r="D6" t="n">
-        <v>87715.07072481877</v>
+        <v>75076.90856995826</v>
       </c>
       <c r="E6" t="n">
-        <v>121342.6707248188</v>
+        <v>108704.5085699583</v>
       </c>
       <c r="F6" t="n">
-        <v>121342.6707248188</v>
+        <v>108704.5085699583</v>
       </c>
       <c r="G6" t="n">
-        <v>116555.2375258562</v>
+        <v>104337.2269058157</v>
       </c>
       <c r="H6" t="n">
-        <v>126284.2805000232</v>
+        <v>114066.2698799828</v>
       </c>
       <c r="I6" t="n">
-        <v>126284.2805000232</v>
+        <v>114066.2698799828</v>
       </c>
       <c r="J6" t="n">
-        <v>72511.76960981383</v>
+        <v>60293.75898977333</v>
       </c>
       <c r="K6" t="n">
-        <v>126284.2805000232</v>
+        <v>114066.2698799827</v>
       </c>
       <c r="L6" t="n">
-        <v>126284.2805000232</v>
+        <v>114066.2698799828</v>
       </c>
       <c r="M6" t="n">
-        <v>126284.2805000232</v>
+        <v>114066.2698799827</v>
       </c>
       <c r="N6" t="n">
-        <v>126284.2805000232</v>
+        <v>114066.2698799828</v>
       </c>
       <c r="O6" t="n">
-        <v>121342.6707248187</v>
+        <v>108704.5085699583</v>
       </c>
       <c r="P6" t="n">
-        <v>121342.6707248188</v>
+        <v>108704.5085699583</v>
       </c>
     </row>
   </sheetData>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -35023,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35415,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35424,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,10 +35974,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37876,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
